--- a/data.xlsx
+++ b/data.xlsx
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +451,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Balance :</t>
+          <t>Balance:</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -460,31 +461,239 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Mobile_No:</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Adhar_No:</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Time:</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>AC_TYPE</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bhuvan</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>SB-123</t>
-        </is>
+          <t>Bhuvan Sonda</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
       </c>
       <c r="C2" t="n">
         <v>5000</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Bh12</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>45486.43727935731</v>
+          <t>bhuvi</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>6363155514</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>741074107410</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>45548.54717765046</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Saving_A/C</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Santoshi</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>101</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>santu</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>6985741254</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>741085207410</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>45548.54782277778</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Current_A/C</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Rakshita</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>102</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>raksh</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>6541254125</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>741085207410</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>45548.54866303241</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Current_A/C</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Anuska</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>103</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>anu</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>6985325412</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>852074108520</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>45548.55064210648</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Current_A/C</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Raj</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>104</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>raj</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>6363636363</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>741085207410</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>45548.57225868056</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Saving_A/C</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Guru</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>105</v>
+      </c>
+      <c r="C7" t="n">
+        <v>600</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>6523523114</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>635214253652</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>45548.62272371438</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Current_A/C</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,23 +483,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bhuvan Sonda</t>
+          <t>asdfghjk</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>5000</v>
+        <v>741</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>bhuvi</t>
+          <t>sdfyui</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6363155514</t>
+          <t>7410741074</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -508,189 +508,45 @@
         </is>
       </c>
       <c r="G2" s="3" t="n">
-        <v>45548.54717765046</v>
+        <v>45554.83865732639</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Saving_A/C</t>
+          <t>Current_A/C</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Santoshi</t>
+          <t>sdfgh</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>101</v>
       </c>
       <c r="C3" t="n">
-        <v>5000</v>
+        <v>741</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>santu</t>
+          <t>asdfgh</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6985741254</t>
+          <t>7410741074</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>741085207410</t>
+          <t>741074107410</t>
         </is>
       </c>
       <c r="G3" s="3" t="n">
-        <v>45548.54782277778</v>
+        <v>45554.84069331692</v>
       </c>
       <c r="H3" t="inlineStr">
-        <is>
-          <t>Current_A/C</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Rakshita</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>102</v>
-      </c>
-      <c r="C4" t="n">
-        <v>5000</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>raksh</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>6541254125</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>741085207410</t>
-        </is>
-      </c>
-      <c r="G4" s="3" t="n">
-        <v>45548.54866303241</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Current_A/C</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Anuska</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>103</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5000</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>anu</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>6985325412</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>852074108520</t>
-        </is>
-      </c>
-      <c r="G5" s="3" t="n">
-        <v>45548.55064210648</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Current_A/C</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Raj</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>104</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5000</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>raj</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>6363636363</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>741085207410</t>
-        </is>
-      </c>
-      <c r="G6" s="3" t="n">
-        <v>45548.57225868056</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Saving_A/C</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Guru</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>105</v>
-      </c>
-      <c r="C7" t="n">
-        <v>600</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>6523523114</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>635214253652</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="n">
-        <v>45548.62272371438</v>
-      </c>
-      <c r="H7" t="inlineStr">
         <is>
           <t>Current_A/C</t>
         </is>
